--- a/output/data.xlsx
+++ b/output/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\TriggerMailBox\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\git\TriggerMailBox\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6F7449-C078-42CE-954E-048320DC4895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C26B980-006C-43AD-91F0-478A1E2DC86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2175" yWindow="2400" windowWidth="21600" windowHeight="11295" xr2:uid="{607E8A58-AEAD-488A-93A1-4035266A2D80}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Bank</t>
   </si>
@@ -177,7 +177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -189,6 +189,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -524,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A9A030-9C6F-48CF-83D3-B33798511316}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
@@ -625,11 +626,72 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E7" s="7">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>3.5</v>
+      </c>
+      <c r="D8">
+        <v>4.3</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E9" s="7">
+        <v>4.5999999999999999E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
